--- a/demomilk/uploads/Area_Master.xlsx
+++ b/demomilk/uploads/Area_Master.xlsx
@@ -15,9 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Area</t>
+  </si>
+  <si>
+    <t>new one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -900,10 +906,13 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -915,14 +924,18 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
